--- a/lecture5/data/seedplants.xlsx
+++ b/lecture5/data/seedplants.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="0" windowWidth="25520" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="seedplants.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>Code</t>
   </si>
@@ -442,32 +442,19 @@
   </si>
   <si>
     <t>ShadeTol</t>
+  </si>
+  <si>
+    <t>ShadeTolBin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,17 +477,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Lien hypertexte visité" xfId="2" builtinId="9" hidden="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -830,15 +813,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -869,8 +852,11 @@
       <c r="J1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -900,11 +886,15 @@
         <v>tall</v>
       </c>
       <c r="J2" t="str">
-        <f>IF(D2&gt;3.6,"high",IF(D2&gt;2.3,"average","low"))</f>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <f>IF(G2&gt;3.6,"high",IF(G2&gt;2.3,"average","low"))</f>
+        <v>high</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(G2&gt;3,"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -934,11 +924,15 @@
         <v>tall</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J66" si="1">IF(D3&gt;3.6,"high",IF(D3&gt;2.3,"average","low"))</f>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <f t="shared" ref="J3:J65" si="1">IF(G3&gt;3.6,"high",IF(G3&gt;2.3,"average","low"))</f>
+        <v>average</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K65" si="2">IF(G3&gt;3,"high","low")</f>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -969,10 +963,14 @@
       </c>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1003,10 +1001,14 @@
       </c>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1039,8 +1041,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1071,10 +1077,14 @@
       </c>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1107,8 +1117,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1139,10 +1153,14 @@
       </c>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1173,10 +1191,14 @@
       </c>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1207,10 +1229,14 @@
       </c>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
-        <v>average</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -1241,10 +1267,14 @@
       </c>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1275,10 +1305,14 @@
       </c>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1309,10 +1343,14 @@
       </c>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1343,10 +1381,14 @@
       </c>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1377,10 +1419,14 @@
       </c>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1411,8 +1457,11 @@
       <c r="J17" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1445,8 +1494,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1477,10 +1530,14 @@
       </c>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1511,10 +1568,14 @@
       </c>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1545,10 +1606,14 @@
       </c>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1581,8 +1646,12 @@
         <f t="shared" si="1"/>
         <v>average</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1613,10 +1682,14 @@
       </c>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
-        <v>average</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1647,10 +1720,14 @@
       </c>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1681,8 +1758,11 @@
       <c r="J25" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1715,8 +1795,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -1747,10 +1831,14 @@
       </c>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -1781,10 +1869,14 @@
       </c>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>63</v>
       </c>
@@ -1815,10 +1907,14 @@
       </c>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1849,10 +1945,14 @@
       </c>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>67</v>
       </c>
@@ -1883,10 +1983,14 @@
       </c>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>69</v>
       </c>
@@ -1917,10 +2021,14 @@
       </c>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>71</v>
       </c>
@@ -1951,10 +2059,14 @@
       </c>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>73</v>
       </c>
@@ -1985,8 +2097,11 @@
       <c r="J34" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>75</v>
       </c>
@@ -2017,10 +2132,14 @@
       </c>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -2051,10 +2170,14 @@
       </c>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>79</v>
       </c>
@@ -2087,8 +2210,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -2121,8 +2248,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -2153,10 +2284,14 @@
       </c>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -2189,8 +2324,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -2223,8 +2362,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -2255,10 +2398,14 @@
       </c>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -2291,8 +2438,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -2323,10 +2474,14 @@
       </c>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -2357,10 +2512,14 @@
       </c>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -2391,10 +2550,14 @@
       </c>
       <c r="J46" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -2425,10 +2588,14 @@
       </c>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2459,10 +2626,14 @@
       </c>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2493,10 +2664,14 @@
       </c>
       <c r="J49" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2527,10 +2702,14 @@
       </c>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2561,10 +2740,14 @@
       </c>
       <c r="J51" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2595,10 +2778,14 @@
       </c>
       <c r="J52" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2629,10 +2816,14 @@
       </c>
       <c r="J53" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2663,10 +2854,14 @@
       </c>
       <c r="J54" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2697,10 +2892,14 @@
       </c>
       <c r="J55" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2731,10 +2930,14 @@
       </c>
       <c r="J56" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -2765,10 +2968,14 @@
       </c>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>low</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -2799,10 +3006,14 @@
       </c>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2833,10 +3044,14 @@
       </c>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2869,8 +3084,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -2903,8 +3122,12 @@
         <f t="shared" si="1"/>
         <v>high</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -2935,10 +3158,14 @@
       </c>
       <c r="J62" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2969,10 +3196,14 @@
       </c>
       <c r="J63" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -3003,10 +3234,14 @@
       </c>
       <c r="J64" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="2"/>
+        <v>high</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -3037,10 +3272,14 @@
       </c>
       <c r="J65" t="str">
         <f t="shared" si="1"/>
-        <v>high</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+        <v>average</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="2"/>
+        <v>low</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -3069,6 +3308,9 @@
         <v>40</v>
       </c>
       <c r="J66" t="s">
+        <v>40</v>
+      </c>
+      <c r="K66" t="s">
         <v>40</v>
       </c>
     </row>
